--- a/COA2_2026_Individual_Schedule_PP05_PP10.xlsx
+++ b/COA2_2026_Individual_Schedule_PP05_PP10.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -59,16 +59,16 @@
     <t>P-01</t>
   </si>
   <si>
+    <t>P-03</t>
+  </si>
+  <si>
+    <t>P-05</t>
+  </si>
+  <si>
     <t>P-02</t>
   </si>
   <si>
-    <t>P-03</t>
-  </si>
-  <si>
     <t>P-04</t>
-  </si>
-  <si>
-    <t>P-05</t>
   </si>
   <si>
     <t>P-06</t>
@@ -77,16 +77,16 @@
     <t>P-07</t>
   </si>
   <si>
+    <t>P-09</t>
+  </si>
+  <si>
+    <t>P-11</t>
+  </si>
+  <si>
     <t>P-08</t>
   </si>
   <si>
-    <t>P-09</t>
-  </si>
-  <si>
     <t>P-10</t>
-  </si>
-  <si>
-    <t>P-11</t>
   </si>
   <si>
     <t>P-12</t>
@@ -95,16 +95,16 @@
     <t>P-13</t>
   </si>
   <si>
+    <t>P-15</t>
+  </si>
+  <si>
+    <t>P-17</t>
+  </si>
+  <si>
     <t>P-14</t>
   </si>
   <si>
-    <t>P-15</t>
-  </si>
-  <si>
     <t>P-16</t>
-  </si>
-  <si>
-    <t>P-17</t>
   </si>
   <si>
     <t>P-18</t>
@@ -113,16 +113,16 @@
     <t>P-19</t>
   </si>
   <si>
+    <t>P-21</t>
+  </si>
+  <si>
+    <t>P-23</t>
+  </si>
+  <si>
     <t>P-20</t>
   </si>
   <si>
-    <t>P-21</t>
-  </si>
-  <si>
     <t>P-22</t>
-  </si>
-  <si>
-    <t>P-23</t>
   </si>
   <si>
     <t>P-24</t>
@@ -131,16 +131,16 @@
     <t>P-25</t>
   </si>
   <si>
+    <t>P-27</t>
+  </si>
+  <si>
+    <t>P-29</t>
+  </si>
+  <si>
     <t>P-26</t>
   </si>
   <si>
-    <t>P-27</t>
-  </si>
-  <si>
     <t>P-28</t>
-  </si>
-  <si>
-    <t>P-29</t>
   </si>
   <si>
     <t>P-30</t>
@@ -149,16 +149,16 @@
     <t>P-31</t>
   </si>
   <si>
+    <t>P-33</t>
+  </si>
+  <si>
+    <t>P-35</t>
+  </si>
+  <si>
     <t>P-32</t>
   </si>
   <si>
-    <t>P-33</t>
-  </si>
-  <si>
     <t>P-34</t>
-  </si>
-  <si>
-    <t>P-35</t>
   </si>
   <si>
     <t>Days</t>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Total Shifts</t>
+  </si>
+  <si>
+    <t>PPs Worked</t>
   </si>
   <si>
     <t>Days PAX</t>
@@ -624,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -644,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
@@ -664,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
@@ -684,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -704,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -724,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -744,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -764,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -784,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
@@ -804,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -824,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -844,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -864,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -884,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
@@ -904,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -924,7 +927,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -944,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
@@ -964,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>49</v>
@@ -984,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
@@ -1004,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>48</v>
@@ -1024,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -1044,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -1064,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>48</v>
@@ -1084,7 +1087,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>49</v>
@@ -1104,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
@@ -1124,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
@@ -1144,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>49</v>
@@ -1164,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>47</v>
@@ -1184,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>48</v>
@@ -1204,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>49</v>
@@ -1224,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>47</v>
@@ -1244,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>48</v>
@@ -1264,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>49</v>
@@ -1284,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
         <v>47</v>
@@ -1304,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>48</v>
@@ -1324,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
         <v>49</v>
@@ -1344,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>47</v>
@@ -1364,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>48</v>
@@ -1384,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
         <v>49</v>
@@ -1404,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
@@ -1424,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
@@ -1444,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>49</v>
@@ -1464,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
         <v>47</v>
@@ -1484,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
         <v>48</v>
@@ -1504,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
         <v>49</v>
@@ -1524,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
         <v>47</v>
@@ -1544,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
         <v>48</v>
@@ -1564,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
         <v>49</v>
@@ -1584,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
         <v>47</v>
@@ -1604,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
@@ -1624,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
         <v>49</v>
@@ -1644,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
         <v>47</v>
@@ -1664,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
@@ -1684,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
         <v>49</v>
@@ -1704,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
         <v>47</v>
@@ -1724,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
         <v>48</v>
@@ -1744,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
         <v>49</v>
@@ -1764,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
         <v>47</v>
@@ -1784,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
@@ -1804,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
         <v>49</v>
@@ -1824,7 +1827,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
         <v>47</v>
@@ -1844,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
         <v>48</v>
@@ -1864,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
         <v>49</v>
@@ -1884,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
         <v>47</v>
@@ -1904,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
         <v>48</v>
@@ -1924,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
         <v>49</v>
@@ -1944,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
         <v>47</v>
@@ -1964,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
@@ -1984,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
         <v>49</v>
@@ -2004,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
         <v>47</v>
@@ -2024,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
         <v>48</v>
@@ -2044,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
         <v>49</v>
@@ -2064,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
@@ -2084,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
         <v>48</v>
@@ -2104,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
         <v>49</v>
@@ -2124,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
         <v>47</v>
@@ -2144,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
         <v>48</v>
@@ -2164,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
         <v>49</v>
@@ -2184,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
         <v>47</v>
@@ -2204,7 +2207,7 @@
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
@@ -2224,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
         <v>49</v>
@@ -2244,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
         <v>47</v>
@@ -2264,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
@@ -2284,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
         <v>49</v>
@@ -2304,7 +2307,7 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
         <v>47</v>
@@ -2324,7 +2327,7 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -2344,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
         <v>49</v>
@@ -2364,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
         <v>47</v>
@@ -2384,7 +2387,7 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
@@ -2404,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
         <v>49</v>
@@ -2424,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
         <v>47</v>
@@ -2444,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
         <v>48</v>
@@ -2464,7 +2467,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E97" t="s">
         <v>49</v>
@@ -2484,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E98" t="s">
         <v>47</v>
@@ -2504,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E99" t="s">
         <v>48</v>
@@ -2524,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
         <v>49</v>
@@ -2544,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
         <v>47</v>
@@ -2564,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E102" t="s">
         <v>48</v>
@@ -2584,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E103" t="s">
         <v>49</v>
@@ -2604,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
         <v>47</v>
@@ -2624,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E105" t="s">
         <v>48</v>
@@ -2644,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E106" t="s">
         <v>49</v>
@@ -2664,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E107" t="s">
         <v>47</v>
@@ -2684,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
         <v>48</v>
@@ -2704,7 +2707,7 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
         <v>49</v>
@@ -2724,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E110" t="s">
         <v>47</v>
@@ -2744,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
         <v>48</v>
@@ -2764,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E112" t="s">
         <v>49</v>
@@ -2784,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E113" t="s">
         <v>47</v>
@@ -2804,7 +2807,7 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
         <v>48</v>
@@ -2824,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E115" t="s">
         <v>49</v>
@@ -2844,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
         <v>47</v>
@@ -2864,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
         <v>48</v>
@@ -2884,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E118" t="s">
         <v>49</v>
@@ -3024,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s">
         <v>47</v>
@@ -3044,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E126" t="s">
         <v>48</v>
@@ -3064,7 +3067,7 @@
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
         <v>49</v>
@@ -3084,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
         <v>47</v>
@@ -3104,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s">
         <v>48</v>
@@ -3124,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E130" t="s">
         <v>49</v>
@@ -3144,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E131" t="s">
         <v>47</v>
@@ -3164,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s">
         <v>48</v>
@@ -3184,7 +3187,7 @@
         <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E133" t="s">
         <v>49</v>
@@ -3204,7 +3207,7 @@
         <v>13</v>
       </c>
       <c r="D134" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
         <v>47</v>
@@ -3224,7 +3227,7 @@
         <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E135" t="s">
         <v>48</v>
@@ -3244,7 +3247,7 @@
         <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E136" t="s">
         <v>49</v>
@@ -3264,7 +3267,7 @@
         <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E137" t="s">
         <v>47</v>
@@ -3284,7 +3287,7 @@
         <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E138" t="s">
         <v>48</v>
@@ -3304,7 +3307,7 @@
         <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E139" t="s">
         <v>49</v>
@@ -3324,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E140" t="s">
         <v>47</v>
@@ -3344,7 +3347,7 @@
         <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E141" t="s">
         <v>48</v>
@@ -3364,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E142" t="s">
         <v>49</v>
@@ -3384,7 +3387,7 @@
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E143" t="s">
         <v>47</v>
@@ -3404,7 +3407,7 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E144" t="s">
         <v>48</v>
@@ -3424,7 +3427,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E145" t="s">
         <v>49</v>
@@ -3444,7 +3447,7 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E146" t="s">
         <v>47</v>
@@ -3464,7 +3467,7 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E147" t="s">
         <v>48</v>
@@ -3484,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E148" t="s">
         <v>49</v>
@@ -3504,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E149" t="s">
         <v>47</v>
@@ -3524,7 +3527,7 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E150" t="s">
         <v>48</v>
@@ -3544,7 +3547,7 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E151" t="s">
         <v>49</v>
@@ -3564,7 +3567,7 @@
         <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E152" t="s">
         <v>47</v>
@@ -3584,7 +3587,7 @@
         <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E153" t="s">
         <v>48</v>
@@ -3604,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E154" t="s">
         <v>49</v>
@@ -3624,7 +3627,7 @@
         <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E155" t="s">
         <v>47</v>
@@ -3644,7 +3647,7 @@
         <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E156" t="s">
         <v>48</v>
@@ -3664,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E157" t="s">
         <v>49</v>
@@ -3684,7 +3687,7 @@
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E158" t="s">
         <v>47</v>
@@ -3704,7 +3707,7 @@
         <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E159" t="s">
         <v>48</v>
@@ -3724,7 +3727,7 @@
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E160" t="s">
         <v>49</v>
@@ -3744,7 +3747,7 @@
         <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E161" t="s">
         <v>47</v>
@@ -3764,7 +3767,7 @@
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E162" t="s">
         <v>48</v>
@@ -3784,7 +3787,7 @@
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E163" t="s">
         <v>49</v>
@@ -3804,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E164" t="s">
         <v>47</v>
@@ -3824,7 +3827,7 @@
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E165" t="s">
         <v>48</v>
@@ -3844,7 +3847,7 @@
         <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E166" t="s">
         <v>49</v>
@@ -3864,7 +3867,7 @@
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E167" t="s">
         <v>47</v>
@@ -3884,7 +3887,7 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E168" t="s">
         <v>48</v>
@@ -3904,7 +3907,7 @@
         <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E169" t="s">
         <v>49</v>
@@ -3924,7 +3927,7 @@
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E170" t="s">
         <v>47</v>
@@ -3944,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E171" t="s">
         <v>48</v>
@@ -3964,7 +3967,7 @@
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E172" t="s">
         <v>49</v>
@@ -3984,7 +3987,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E173" t="s">
         <v>47</v>
@@ -4004,7 +4007,7 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E174" t="s">
         <v>48</v>
@@ -4024,7 +4027,7 @@
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E175" t="s">
         <v>49</v>
@@ -4044,7 +4047,7 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E176" t="s">
         <v>47</v>
@@ -4064,7 +4067,7 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E177" t="s">
         <v>48</v>
@@ -4084,7 +4087,7 @@
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E178" t="s">
         <v>49</v>
@@ -4104,7 +4107,7 @@
         <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E179" t="s">
         <v>47</v>
@@ -4124,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E180" t="s">
         <v>48</v>
@@ -4144,7 +4147,7 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E181" t="s">
         <v>49</v>
@@ -4164,7 +4167,7 @@
         <v>15</v>
       </c>
       <c r="D182" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E182" t="s">
         <v>47</v>
@@ -4184,7 +4187,7 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E183" t="s">
         <v>48</v>
@@ -4204,7 +4207,7 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E184" t="s">
         <v>49</v>
@@ -4224,7 +4227,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E185" t="s">
         <v>47</v>
@@ -4244,7 +4247,7 @@
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E186" t="s">
         <v>48</v>
@@ -4264,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E187" t="s">
         <v>49</v>
@@ -4284,7 +4287,7 @@
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E188" t="s">
         <v>47</v>
@@ -4304,7 +4307,7 @@
         <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E189" t="s">
         <v>48</v>
@@ -4324,7 +4327,7 @@
         <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E190" t="s">
         <v>49</v>
@@ -4344,7 +4347,7 @@
         <v>15</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E191" t="s">
         <v>47</v>
@@ -4364,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E192" t="s">
         <v>48</v>
@@ -4384,7 +4387,7 @@
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E193" t="s">
         <v>49</v>
@@ -4404,7 +4407,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E194" t="s">
         <v>47</v>
@@ -4424,7 +4427,7 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E195" t="s">
         <v>48</v>
@@ -4444,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E196" t="s">
         <v>49</v>
@@ -4464,7 +4467,7 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E197" t="s">
         <v>47</v>
@@ -4484,7 +4487,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E198" t="s">
         <v>48</v>
@@ -4504,7 +4507,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E199" t="s">
         <v>49</v>
@@ -4524,7 +4527,7 @@
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E200" t="s">
         <v>47</v>
@@ -4544,7 +4547,7 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E201" t="s">
         <v>48</v>
@@ -4564,7 +4567,7 @@
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E202" t="s">
         <v>49</v>
@@ -4584,7 +4587,7 @@
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E203" t="s">
         <v>47</v>
@@ -4604,7 +4607,7 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E204" t="s">
         <v>48</v>
@@ -4624,7 +4627,7 @@
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E205" t="s">
         <v>49</v>
@@ -4644,7 +4647,7 @@
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E206" t="s">
         <v>47</v>
@@ -4664,7 +4667,7 @@
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E207" t="s">
         <v>48</v>
@@ -4684,7 +4687,7 @@
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E208" t="s">
         <v>49</v>
@@ -4704,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E209" t="s">
         <v>47</v>
@@ -4724,7 +4727,7 @@
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E210" t="s">
         <v>48</v>
@@ -4744,7 +4747,7 @@
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E211" t="s">
         <v>49</v>
@@ -4764,7 +4767,7 @@
         <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E212" t="s">
         <v>47</v>
@@ -4784,7 +4787,7 @@
         <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E213" t="s">
         <v>48</v>
@@ -4804,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E214" t="s">
         <v>49</v>
@@ -4824,7 +4827,7 @@
         <v>17</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E215" t="s">
         <v>47</v>
@@ -4844,7 +4847,7 @@
         <v>17</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E216" t="s">
         <v>48</v>
@@ -4864,7 +4867,7 @@
         <v>17</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E217" t="s">
         <v>49</v>
@@ -4884,7 +4887,7 @@
         <v>17</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E218" t="s">
         <v>47</v>
@@ -4904,7 +4907,7 @@
         <v>17</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E219" t="s">
         <v>48</v>
@@ -4924,7 +4927,7 @@
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E220" t="s">
         <v>49</v>
@@ -4944,7 +4947,7 @@
         <v>17</v>
       </c>
       <c r="D221" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E221" t="s">
         <v>47</v>
@@ -4964,7 +4967,7 @@
         <v>17</v>
       </c>
       <c r="D222" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E222" t="s">
         <v>48</v>
@@ -4984,7 +4987,7 @@
         <v>17</v>
       </c>
       <c r="D223" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E223" t="s">
         <v>49</v>
@@ -5004,7 +5007,7 @@
         <v>17</v>
       </c>
       <c r="D224" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E224" t="s">
         <v>47</v>
@@ -5024,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E225" t="s">
         <v>48</v>
@@ -5044,7 +5047,7 @@
         <v>17</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E226" t="s">
         <v>49</v>
@@ -5064,7 +5067,7 @@
         <v>17</v>
       </c>
       <c r="D227" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E227" t="s">
         <v>47</v>
@@ -5084,7 +5087,7 @@
         <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E228" t="s">
         <v>48</v>
@@ -5104,7 +5107,7 @@
         <v>17</v>
       </c>
       <c r="D229" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E229" t="s">
         <v>49</v>
@@ -5124,7 +5127,7 @@
         <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E230" t="s">
         <v>47</v>
@@ -5144,7 +5147,7 @@
         <v>17</v>
       </c>
       <c r="D231" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E231" t="s">
         <v>48</v>
@@ -5164,7 +5167,7 @@
         <v>17</v>
       </c>
       <c r="D232" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E232" t="s">
         <v>49</v>
@@ -5184,7 +5187,7 @@
         <v>17</v>
       </c>
       <c r="D233" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E233" t="s">
         <v>47</v>
@@ -5204,7 +5207,7 @@
         <v>17</v>
       </c>
       <c r="D234" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E234" t="s">
         <v>48</v>
@@ -5224,7 +5227,7 @@
         <v>17</v>
       </c>
       <c r="D235" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E235" t="s">
         <v>49</v>
@@ -5244,7 +5247,7 @@
         <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E236" t="s">
         <v>47</v>
@@ -5264,7 +5267,7 @@
         <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E237" t="s">
         <v>48</v>
@@ -5284,7 +5287,7 @@
         <v>18</v>
       </c>
       <c r="D238" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E238" t="s">
         <v>49</v>
@@ -5304,7 +5307,7 @@
         <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E239" t="s">
         <v>47</v>
@@ -5324,7 +5327,7 @@
         <v>18</v>
       </c>
       <c r="D240" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E240" t="s">
         <v>48</v>
@@ -5344,7 +5347,7 @@
         <v>18</v>
       </c>
       <c r="D241" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E241" t="s">
         <v>49</v>
@@ -5424,7 +5427,7 @@
         <v>18</v>
       </c>
       <c r="D245" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E245" t="s">
         <v>47</v>
@@ -5444,7 +5447,7 @@
         <v>18</v>
       </c>
       <c r="D246" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E246" t="s">
         <v>48</v>
@@ -5464,7 +5467,7 @@
         <v>18</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E247" t="s">
         <v>49</v>
@@ -5484,7 +5487,7 @@
         <v>18</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E248" t="s">
         <v>47</v>
@@ -5504,7 +5507,7 @@
         <v>18</v>
       </c>
       <c r="D249" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E249" t="s">
         <v>48</v>
@@ -5524,7 +5527,7 @@
         <v>18</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E250" t="s">
         <v>49</v>
@@ -5544,7 +5547,7 @@
         <v>18</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E251" t="s">
         <v>47</v>
@@ -5564,7 +5567,7 @@
         <v>18</v>
       </c>
       <c r="D252" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E252" t="s">
         <v>48</v>
@@ -5584,7 +5587,7 @@
         <v>18</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E253" t="s">
         <v>49</v>
@@ -5600,7 +5603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5633,10 +5636,10 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5644,10 +5647,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5655,10 +5658,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5666,40 +5669,40 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -5710,10 +5713,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5724,37 +5727,37 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -5762,51 +5765,51 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
         <v>16</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -5817,54 +5820,54 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -5872,54 +5875,54 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5927,54 +5930,54 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -5982,54 +5985,54 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
         <v>16</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -6037,51 +6040,51 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
         <v>16</v>
-      </c>
-      <c r="B41">
-        <v>18</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -6092,54 +6095,54 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -6147,54 +6150,54 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -6202,54 +6205,54 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -6257,54 +6260,54 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>13</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B64">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -6312,54 +6315,54 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -6367,54 +6370,54 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B70">
         <v>15</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -6422,54 +6425,54 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B77">
         <v>15</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -6477,54 +6480,54 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B84">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>8</v>
@@ -6532,54 +6535,54 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B85">
         <v>17</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -6587,1806 +6590,24 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B90">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B91">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92">
-        <v>17</v>
-      </c>
-      <c r="C92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93">
-        <v>7</v>
-      </c>
-      <c r="C93">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94">
-        <v>9</v>
-      </c>
-      <c r="C94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95">
-        <v>10</v>
-      </c>
-      <c r="C95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96">
-        <v>12</v>
-      </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97">
-        <v>14</v>
-      </c>
-      <c r="C97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98">
-        <v>15</v>
-      </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>24</v>
-      </c>
-      <c r="B99">
-        <v>17</v>
-      </c>
-      <c r="C99">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100">
-        <v>7</v>
-      </c>
-      <c r="C100">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101">
-        <v>9</v>
-      </c>
-      <c r="C101">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102">
-        <v>10</v>
-      </c>
-      <c r="C102">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103">
-        <v>12</v>
-      </c>
-      <c r="C103">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104">
-        <v>14</v>
-      </c>
-      <c r="C104">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105">
-        <v>15</v>
-      </c>
-      <c r="C105">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106">
-        <v>17</v>
-      </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>26</v>
-      </c>
-      <c r="B107">
-        <v>7</v>
-      </c>
-      <c r="C107">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>26</v>
-      </c>
-      <c r="B108">
-        <v>9</v>
-      </c>
-      <c r="C108">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109">
-        <v>10</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110">
-        <v>12</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>26</v>
-      </c>
-      <c r="B111">
-        <v>14</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112">
-        <v>15</v>
-      </c>
-      <c r="C112">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113">
-        <v>17</v>
-      </c>
-      <c r="C113">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114">
-        <v>7</v>
-      </c>
-      <c r="C114">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115">
-        <v>9</v>
-      </c>
-      <c r="C115">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>27</v>
-      </c>
-      <c r="B116">
-        <v>10</v>
-      </c>
-      <c r="C116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>27</v>
-      </c>
-      <c r="B117">
-        <v>12</v>
-      </c>
-      <c r="C117">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>27</v>
-      </c>
-      <c r="B118">
-        <v>14</v>
-      </c>
-      <c r="C118">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>27</v>
-      </c>
-      <c r="B119">
-        <v>15</v>
-      </c>
-      <c r="C119">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120">
-        <v>17</v>
-      </c>
-      <c r="C120">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B121">
-        <v>7</v>
-      </c>
-      <c r="C121">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>28</v>
-      </c>
-      <c r="B122">
-        <v>9</v>
-      </c>
-      <c r="C122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123">
-        <v>10</v>
-      </c>
-      <c r="C123">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>28</v>
-      </c>
-      <c r="B124">
-        <v>12</v>
-      </c>
-      <c r="C124">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>28</v>
-      </c>
-      <c r="B125">
-        <v>14</v>
-      </c>
-      <c r="C125">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>28</v>
-      </c>
-      <c r="B126">
-        <v>15</v>
-      </c>
-      <c r="C126">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>28</v>
-      </c>
-      <c r="B127">
-        <v>17</v>
-      </c>
-      <c r="C127">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>29</v>
-      </c>
-      <c r="B128">
-        <v>7</v>
-      </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>29</v>
-      </c>
-      <c r="B129">
-        <v>9</v>
-      </c>
-      <c r="C129">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>29</v>
-      </c>
-      <c r="B130">
-        <v>11</v>
-      </c>
-      <c r="C130">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>29</v>
-      </c>
-      <c r="B131">
-        <v>12</v>
-      </c>
-      <c r="C131">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>29</v>
-      </c>
-      <c r="B132">
-        <v>14</v>
-      </c>
-      <c r="C132">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>29</v>
-      </c>
-      <c r="B133">
         <v>16</v>
-      </c>
-      <c r="C133">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134">
-        <v>17</v>
-      </c>
-      <c r="C134">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135">
-        <v>7</v>
-      </c>
-      <c r="C135">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136">
-        <v>9</v>
-      </c>
-      <c r="C136">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B137">
-        <v>11</v>
-      </c>
-      <c r="C137">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>30</v>
-      </c>
-      <c r="B138">
-        <v>12</v>
-      </c>
-      <c r="C138">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>30</v>
-      </c>
-      <c r="B139">
-        <v>14</v>
-      </c>
-      <c r="C139">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>30</v>
-      </c>
-      <c r="B140">
-        <v>16</v>
-      </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>30</v>
-      </c>
-      <c r="B141">
-        <v>17</v>
-      </c>
-      <c r="C141">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>31</v>
-      </c>
-      <c r="B142">
-        <v>7</v>
-      </c>
-      <c r="C142">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>31</v>
-      </c>
-      <c r="B143">
-        <v>9</v>
-      </c>
-      <c r="C143">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>31</v>
-      </c>
-      <c r="B144">
-        <v>11</v>
-      </c>
-      <c r="C144">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>31</v>
-      </c>
-      <c r="B145">
-        <v>12</v>
-      </c>
-      <c r="C145">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>31</v>
-      </c>
-      <c r="B146">
-        <v>14</v>
-      </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>31</v>
-      </c>
-      <c r="B147">
-        <v>16</v>
-      </c>
-      <c r="C147">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>31</v>
-      </c>
-      <c r="B148">
-        <v>17</v>
-      </c>
-      <c r="C148">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>32</v>
-      </c>
-      <c r="B149">
-        <v>7</v>
-      </c>
-      <c r="C149">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>32</v>
-      </c>
-      <c r="B150">
-        <v>9</v>
-      </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>32</v>
-      </c>
-      <c r="B151">
-        <v>11</v>
-      </c>
-      <c r="C151">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152">
-        <v>12</v>
-      </c>
-      <c r="C152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153">
-        <v>14</v>
-      </c>
-      <c r="C153">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154">
-        <v>16</v>
-      </c>
-      <c r="C154">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155">
-        <v>17</v>
-      </c>
-      <c r="C155">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>33</v>
-      </c>
-      <c r="B156">
-        <v>7</v>
-      </c>
-      <c r="C156">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>33</v>
-      </c>
-      <c r="B157">
-        <v>9</v>
-      </c>
-      <c r="C157">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>33</v>
-      </c>
-      <c r="B158">
-        <v>11</v>
-      </c>
-      <c r="C158">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>33</v>
-      </c>
-      <c r="B159">
-        <v>12</v>
-      </c>
-      <c r="C159">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>33</v>
-      </c>
-      <c r="B160">
-        <v>14</v>
-      </c>
-      <c r="C160">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>33</v>
-      </c>
-      <c r="B161">
-        <v>16</v>
-      </c>
-      <c r="C161">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>33</v>
-      </c>
-      <c r="B162">
-        <v>17</v>
-      </c>
-      <c r="C162">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>34</v>
-      </c>
-      <c r="B163">
-        <v>7</v>
-      </c>
-      <c r="C163">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>34</v>
-      </c>
-      <c r="B164">
-        <v>9</v>
-      </c>
-      <c r="C164">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>34</v>
-      </c>
-      <c r="B165">
-        <v>11</v>
-      </c>
-      <c r="C165">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>34</v>
-      </c>
-      <c r="B166">
-        <v>12</v>
-      </c>
-      <c r="C166">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>34</v>
-      </c>
-      <c r="B167">
-        <v>14</v>
-      </c>
-      <c r="C167">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>34</v>
-      </c>
-      <c r="B168">
-        <v>16</v>
-      </c>
-      <c r="C168">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>34</v>
-      </c>
-      <c r="B169">
-        <v>17</v>
-      </c>
-      <c r="C169">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170">
-        <v>7</v>
-      </c>
-      <c r="C170">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>35</v>
-      </c>
-      <c r="B171">
-        <v>9</v>
-      </c>
-      <c r="C171">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>35</v>
-      </c>
-      <c r="B172">
-        <v>11</v>
-      </c>
-      <c r="C172">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>35</v>
-      </c>
-      <c r="B173">
-        <v>12</v>
-      </c>
-      <c r="C173">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>35</v>
-      </c>
-      <c r="B174">
-        <v>14</v>
-      </c>
-      <c r="C174">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>35</v>
-      </c>
-      <c r="B175">
-        <v>16</v>
-      </c>
-      <c r="C175">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>35</v>
-      </c>
-      <c r="B176">
-        <v>17</v>
-      </c>
-      <c r="C176">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>36</v>
-      </c>
-      <c r="B177">
-        <v>8</v>
-      </c>
-      <c r="C177">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>36</v>
-      </c>
-      <c r="B178">
-        <v>9</v>
-      </c>
-      <c r="C178">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>36</v>
-      </c>
-      <c r="B179">
-        <v>11</v>
-      </c>
-      <c r="C179">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180">
-        <v>13</v>
-      </c>
-      <c r="C180">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181">
-        <v>14</v>
-      </c>
-      <c r="C181">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>36</v>
-      </c>
-      <c r="B182">
-        <v>16</v>
-      </c>
-      <c r="C182">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183">
-        <v>18</v>
-      </c>
-      <c r="C183">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>37</v>
-      </c>
-      <c r="B184">
-        <v>8</v>
-      </c>
-      <c r="C184">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>37</v>
-      </c>
-      <c r="B185">
-        <v>9</v>
-      </c>
-      <c r="C185">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>37</v>
-      </c>
-      <c r="B186">
-        <v>11</v>
-      </c>
-      <c r="C186">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>37</v>
-      </c>
-      <c r="B187">
-        <v>13</v>
-      </c>
-      <c r="C187">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>37</v>
-      </c>
-      <c r="B188">
-        <v>14</v>
-      </c>
-      <c r="C188">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>37</v>
-      </c>
-      <c r="B189">
-        <v>16</v>
-      </c>
-      <c r="C189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>37</v>
-      </c>
-      <c r="B190">
-        <v>18</v>
-      </c>
-      <c r="C190">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>38</v>
-      </c>
-      <c r="B191">
-        <v>8</v>
-      </c>
-      <c r="C191">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>38</v>
-      </c>
-      <c r="B192">
-        <v>9</v>
-      </c>
-      <c r="C192">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>38</v>
-      </c>
-      <c r="B193">
-        <v>11</v>
-      </c>
-      <c r="C193">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>38</v>
-      </c>
-      <c r="B194">
-        <v>13</v>
-      </c>
-      <c r="C194">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>38</v>
-      </c>
-      <c r="B195">
-        <v>14</v>
-      </c>
-      <c r="C195">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>38</v>
-      </c>
-      <c r="B196">
-        <v>16</v>
-      </c>
-      <c r="C196">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>38</v>
-      </c>
-      <c r="B197">
-        <v>18</v>
-      </c>
-      <c r="C197">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>39</v>
-      </c>
-      <c r="B198">
-        <v>8</v>
-      </c>
-      <c r="C198">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>39</v>
-      </c>
-      <c r="B199">
-        <v>9</v>
-      </c>
-      <c r="C199">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>39</v>
-      </c>
-      <c r="B200">
-        <v>11</v>
-      </c>
-      <c r="C200">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>39</v>
-      </c>
-      <c r="B201">
-        <v>13</v>
-      </c>
-      <c r="C201">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>39</v>
-      </c>
-      <c r="B202">
-        <v>14</v>
-      </c>
-      <c r="C202">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>39</v>
-      </c>
-      <c r="B203">
-        <v>16</v>
-      </c>
-      <c r="C203">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>39</v>
-      </c>
-      <c r="B204">
-        <v>18</v>
-      </c>
-      <c r="C204">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>40</v>
-      </c>
-      <c r="B205">
-        <v>8</v>
-      </c>
-      <c r="C205">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>40</v>
-      </c>
-      <c r="B206">
-        <v>9</v>
-      </c>
-      <c r="C206">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>40</v>
-      </c>
-      <c r="B207">
-        <v>11</v>
-      </c>
-      <c r="C207">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>40</v>
-      </c>
-      <c r="B208">
-        <v>13</v>
-      </c>
-      <c r="C208">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>40</v>
-      </c>
-      <c r="B209">
-        <v>14</v>
-      </c>
-      <c r="C209">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>40</v>
-      </c>
-      <c r="B210">
-        <v>16</v>
-      </c>
-      <c r="C210">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>40</v>
-      </c>
-      <c r="B211">
-        <v>18</v>
-      </c>
-      <c r="C211">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>41</v>
-      </c>
-      <c r="B212">
-        <v>8</v>
-      </c>
-      <c r="C212">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>41</v>
-      </c>
-      <c r="B213">
-        <v>9</v>
-      </c>
-      <c r="C213">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>41</v>
-      </c>
-      <c r="B214">
-        <v>11</v>
-      </c>
-      <c r="C214">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>41</v>
-      </c>
-      <c r="B215">
-        <v>13</v>
-      </c>
-      <c r="C215">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>41</v>
-      </c>
-      <c r="B216">
-        <v>14</v>
-      </c>
-      <c r="C216">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>41</v>
-      </c>
-      <c r="B217">
-        <v>16</v>
-      </c>
-      <c r="C217">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>41</v>
-      </c>
-      <c r="B218">
-        <v>18</v>
-      </c>
-      <c r="C218">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>42</v>
-      </c>
-      <c r="B219">
-        <v>8</v>
-      </c>
-      <c r="C219">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>42</v>
-      </c>
-      <c r="B220">
-        <v>9</v>
-      </c>
-      <c r="C220">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>42</v>
-      </c>
-      <c r="B221">
-        <v>11</v>
-      </c>
-      <c r="C221">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>42</v>
-      </c>
-      <c r="B222">
-        <v>13</v>
-      </c>
-      <c r="C222">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>42</v>
-      </c>
-      <c r="B223">
-        <v>14</v>
-      </c>
-      <c r="C223">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>42</v>
-      </c>
-      <c r="B224">
-        <v>16</v>
-      </c>
-      <c r="C224">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>42</v>
-      </c>
-      <c r="B225">
-        <v>18</v>
-      </c>
-      <c r="C225">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>43</v>
-      </c>
-      <c r="B226">
-        <v>8</v>
-      </c>
-      <c r="C226">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>43</v>
-      </c>
-      <c r="B227">
-        <v>10</v>
-      </c>
-      <c r="C227">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>43</v>
-      </c>
-      <c r="B228">
-        <v>11</v>
-      </c>
-      <c r="C228">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>43</v>
-      </c>
-      <c r="B229">
-        <v>13</v>
-      </c>
-      <c r="C229">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>43</v>
-      </c>
-      <c r="B230">
-        <v>15</v>
-      </c>
-      <c r="C230">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>43</v>
-      </c>
-      <c r="B231">
-        <v>16</v>
-      </c>
-      <c r="C231">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>43</v>
-      </c>
-      <c r="B232">
-        <v>18</v>
-      </c>
-      <c r="C232">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>44</v>
-      </c>
-      <c r="B233">
-        <v>8</v>
-      </c>
-      <c r="C233">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>44</v>
-      </c>
-      <c r="B234">
-        <v>10</v>
-      </c>
-      <c r="C234">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>44</v>
-      </c>
-      <c r="B235">
-        <v>11</v>
-      </c>
-      <c r="C235">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>44</v>
-      </c>
-      <c r="B236">
-        <v>13</v>
-      </c>
-      <c r="C236">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>44</v>
-      </c>
-      <c r="B237">
-        <v>15</v>
-      </c>
-      <c r="C237">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>44</v>
-      </c>
-      <c r="B238">
-        <v>16</v>
-      </c>
-      <c r="C238">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>44</v>
-      </c>
-      <c r="B239">
-        <v>18</v>
-      </c>
-      <c r="C239">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>45</v>
-      </c>
-      <c r="B240">
-        <v>8</v>
-      </c>
-      <c r="C240">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>45</v>
-      </c>
-      <c r="B241">
-        <v>10</v>
-      </c>
-      <c r="C241">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>45</v>
-      </c>
-      <c r="B242">
-        <v>11</v>
-      </c>
-      <c r="C242">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
-        <v>45</v>
-      </c>
-      <c r="B243">
-        <v>13</v>
-      </c>
-      <c r="C243">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="s">
-        <v>45</v>
-      </c>
-      <c r="B244">
-        <v>15</v>
-      </c>
-      <c r="C244">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="s">
-        <v>45</v>
-      </c>
-      <c r="B245">
-        <v>16</v>
-      </c>
-      <c r="C245">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
-        <v>45</v>
-      </c>
-      <c r="B246">
-        <v>18</v>
-      </c>
-      <c r="C246">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
-        <v>46</v>
-      </c>
-      <c r="B247">
-        <v>8</v>
-      </c>
-      <c r="C247">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
-        <v>46</v>
-      </c>
-      <c r="B248">
-        <v>10</v>
-      </c>
-      <c r="C248">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="s">
-        <v>46</v>
-      </c>
-      <c r="B249">
-        <v>11</v>
-      </c>
-      <c r="C249">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
-        <v>46</v>
-      </c>
-      <c r="B250">
-        <v>13</v>
-      </c>
-      <c r="C250">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="s">
-        <v>46</v>
-      </c>
-      <c r="B251">
-        <v>15</v>
-      </c>
-      <c r="C251">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" t="s">
-        <v>46</v>
-      </c>
-      <c r="B252">
-        <v>16</v>
-      </c>
-      <c r="C252">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="s">
-        <v>46</v>
-      </c>
-      <c r="B253">
-        <v>18</v>
-      </c>
-      <c r="C253">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8396,7 +6617,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8424,10 +6645,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8435,2925 +6656,489 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>16</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>16</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>16</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>16</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59">
-        <v>8</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61">
-        <v>8</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>8</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>16</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>8</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>8</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66">
-        <v>8</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>8</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69">
-        <v>16</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71">
-        <v>8</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>8</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73">
-        <v>8</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>8</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75">
-        <v>16</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>8</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>8</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80">
-        <v>8</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81">
-        <v>16</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82">
-        <v>8</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83">
-        <v>8</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84">
-        <v>8</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85">
-        <v>8</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86">
-        <v>8</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87">
-        <v>8</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88">
-        <v>16</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90">
-        <v>8</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91">
-        <v>8</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>8</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93">
-        <v>8</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94">
-        <v>16</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95">
-        <v>8</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97">
-        <v>8</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99">
-        <v>8</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>16</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101">
-        <v>8</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102">
-        <v>8</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103">
-        <v>8</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104">
-        <v>8</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106">
-        <v>16</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107">
-        <v>8</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108">
-        <v>8</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112">
-        <v>16</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113">
-        <v>8</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114">
-        <v>8</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>30</v>
-      </c>
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115">
-        <v>8</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>31</v>
-      </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116">
-        <v>8</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>31</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117">
-        <v>8</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>31</v>
-      </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118">
-        <v>16</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>31</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119">
-        <v>8</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>31</v>
-      </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120">
-        <v>8</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>31</v>
-      </c>
-      <c r="B121" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121">
-        <v>8</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>32</v>
-      </c>
-      <c r="B122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122">
-        <v>8</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>32</v>
-      </c>
-      <c r="B123" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123">
-        <v>8</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>32</v>
-      </c>
-      <c r="B124" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124">
-        <v>16</v>
-      </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>32</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125">
-        <v>8</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>32</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126">
-        <v>8</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>32</v>
-      </c>
-      <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127">
-        <v>8</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129">
-        <v>8</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>33</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130">
-        <v>8</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>33</v>
-      </c>
-      <c r="B131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131">
-        <v>16</v>
-      </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132">
-        <v>8</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133">
-        <v>8</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>34</v>
-      </c>
-      <c r="B134" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134">
-        <v>8</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>34</v>
-      </c>
-      <c r="B135" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135">
-        <v>8</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136">
-        <v>8</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>34</v>
-      </c>
-      <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137">
-        <v>16</v>
-      </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>34</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138">
-        <v>8</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>34</v>
-      </c>
-      <c r="B139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139">
-        <v>8</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140">
-        <v>8</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>35</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141">
-        <v>8</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>35</v>
-      </c>
-      <c r="B142" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142">
-        <v>8</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>35</v>
-      </c>
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143">
-        <v>16</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144">
-        <v>8</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>35</v>
-      </c>
-      <c r="B145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145">
-        <v>8</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146">
-        <v>8</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147">
-        <v>8</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>36</v>
-      </c>
-      <c r="B148" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148">
-        <v>8</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>36</v>
-      </c>
-      <c r="B149" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149">
-        <v>16</v>
-      </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151">
-        <v>8</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152">
-        <v>8</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153">
-        <v>8</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154">
-        <v>8</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>37</v>
-      </c>
-      <c r="B155" t="s">
-        <v>9</v>
-      </c>
-      <c r="C155">
-        <v>16</v>
-      </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156">
-        <v>8</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>37</v>
-      </c>
-      <c r="B157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157">
-        <v>8</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>38</v>
-      </c>
-      <c r="B158" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158">
-        <v>8</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>38</v>
-      </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159">
-        <v>8</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>38</v>
-      </c>
-      <c r="B160" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160">
-        <v>8</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>38</v>
-      </c>
-      <c r="B161" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161">
-        <v>16</v>
-      </c>
-      <c r="D161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>38</v>
-      </c>
-      <c r="B162" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162">
-        <v>8</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>38</v>
-      </c>
-      <c r="B163" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163">
-        <v>8</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>39</v>
-      </c>
-      <c r="B164" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164">
-        <v>8</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>39</v>
-      </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165">
-        <v>8</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>39</v>
-      </c>
-      <c r="B166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166">
-        <v>8</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>39</v>
-      </c>
-      <c r="B167" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167">
-        <v>16</v>
-      </c>
-      <c r="D167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>39</v>
-      </c>
-      <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168">
-        <v>8</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>39</v>
-      </c>
-      <c r="B169" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169">
-        <v>8</v>
-      </c>
-      <c r="D169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>40</v>
-      </c>
-      <c r="B170" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170">
-        <v>8</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>40</v>
-      </c>
-      <c r="B171" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171">
-        <v>8</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>40</v>
-      </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172">
-        <v>8</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>40</v>
-      </c>
-      <c r="B173" t="s">
-        <v>9</v>
-      </c>
-      <c r="C173">
-        <v>8</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>40</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174">
-        <v>16</v>
-      </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>40</v>
-      </c>
-      <c r="B175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175">
-        <v>8</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>41</v>
-      </c>
-      <c r="B176" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176">
-        <v>8</v>
-      </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>41</v>
-      </c>
-      <c r="B177" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177">
-        <v>8</v>
-      </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>41</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178">
-        <v>8</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>41</v>
-      </c>
-      <c r="B179" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179">
-        <v>8</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>41</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180">
-        <v>16</v>
-      </c>
-      <c r="D180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>41</v>
-      </c>
-      <c r="B181" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181">
-        <v>8</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>42</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182">
-        <v>8</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>42</v>
-      </c>
-      <c r="B183" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183">
-        <v>8</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>42</v>
-      </c>
-      <c r="B184" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184">
-        <v>8</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>42</v>
-      </c>
-      <c r="B185" t="s">
-        <v>9</v>
-      </c>
-      <c r="C185">
-        <v>8</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>42</v>
-      </c>
-      <c r="B186" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186">
-        <v>16</v>
-      </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>42</v>
-      </c>
-      <c r="B187" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187">
-        <v>8</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>43</v>
-      </c>
-      <c r="B188" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188">
-        <v>8</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>43</v>
-      </c>
-      <c r="B189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189">
-        <v>8</v>
-      </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>43</v>
-      </c>
-      <c r="B190" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190">
-        <v>8</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>43</v>
-      </c>
-      <c r="B191" t="s">
-        <v>9</v>
-      </c>
-      <c r="C191">
-        <v>8</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>43</v>
-      </c>
-      <c r="B192" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192">
-        <v>16</v>
-      </c>
-      <c r="D192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>43</v>
-      </c>
-      <c r="B193" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193">
-        <v>8</v>
-      </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>44</v>
-      </c>
-      <c r="B194" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194">
-        <v>8</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>44</v>
-      </c>
-      <c r="B195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195">
-        <v>8</v>
-      </c>
-      <c r="D195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>44</v>
-      </c>
-      <c r="B196" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196">
-        <v>8</v>
-      </c>
-      <c r="D196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>44</v>
-      </c>
-      <c r="B197" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197">
-        <v>8</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>44</v>
-      </c>
-      <c r="B198" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198">
-        <v>16</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>44</v>
-      </c>
-      <c r="B199" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199">
-        <v>8</v>
-      </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>45</v>
-      </c>
-      <c r="B200" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200">
-        <v>8</v>
-      </c>
-      <c r="D200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>45</v>
-      </c>
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201">
-        <v>8</v>
-      </c>
-      <c r="D201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>45</v>
-      </c>
-      <c r="B202" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202">
-        <v>8</v>
-      </c>
-      <c r="D202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>45</v>
-      </c>
-      <c r="B203" t="s">
-        <v>9</v>
-      </c>
-      <c r="C203">
-        <v>8</v>
-      </c>
-      <c r="D203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>45</v>
-      </c>
-      <c r="B204" t="s">
-        <v>10</v>
-      </c>
-      <c r="C204">
-        <v>16</v>
-      </c>
-      <c r="D204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>45</v>
-      </c>
-      <c r="B205" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205">
-        <v>8</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>46</v>
-      </c>
-      <c r="B206" t="s">
-        <v>6</v>
-      </c>
-      <c r="C206">
-        <v>8</v>
-      </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>46</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207">
-        <v>8</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>46</v>
-      </c>
-      <c r="B208" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208">
-        <v>8</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209">
-        <v>8</v>
-      </c>
-      <c r="D209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>46</v>
-      </c>
-      <c r="B210" t="s">
-        <v>10</v>
-      </c>
-      <c r="C210">
-        <v>16</v>
-      </c>
-      <c r="D210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>46</v>
-      </c>
-      <c r="B211" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211">
-        <v>8</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -11363,13 +7148,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11379,87 +7164,111 @@
       <c r="C1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -11467,10 +7276,13 @@
       <c r="C9">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -11478,10 +7290,13 @@
       <c r="C10">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -11489,10 +7304,13 @@
       <c r="C11">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -11500,8 +7318,11 @@
       <c r="C12">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -11511,8 +7332,11 @@
       <c r="C13">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -11522,10 +7346,13 @@
       <c r="C14">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -11533,10 +7360,13 @@
       <c r="C15">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -11544,10 +7374,13 @@
       <c r="C16">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -11555,10 +7388,13 @@
       <c r="C17">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -11566,8 +7402,11 @@
       <c r="C18">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -11577,8 +7416,11 @@
       <c r="C19">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -11588,10 +7430,13 @@
       <c r="C20">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -11599,10 +7444,13 @@
       <c r="C21">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -11610,10 +7458,13 @@
       <c r="C22">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -11621,10 +7472,13 @@
       <c r="C23">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -11632,8 +7486,11 @@
       <c r="C24">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -11643,8 +7500,11 @@
       <c r="C25">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -11654,10 +7514,13 @@
       <c r="C26">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -11665,10 +7528,13 @@
       <c r="C27">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -11676,10 +7542,13 @@
       <c r="C28">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -11687,10 +7556,13 @@
       <c r="C29">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -11698,8 +7570,11 @@
       <c r="C30">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -11709,8 +7584,11 @@
       <c r="C31">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -11720,10 +7598,13 @@
       <c r="C32">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -11731,10 +7612,13 @@
       <c r="C33">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -11742,10 +7626,13 @@
       <c r="C34">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -11753,16 +7640,22 @@
       <c r="C35">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
       <c r="C36">
         <v>56</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11786,16 +7679,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
